--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F8778-2B70-4C27-A92B-C5111F916221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065FDA7-421C-4F8A-A16F-CF6BB31AA54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33970" yWindow="-4710" windowWidth="28800" windowHeight="15850" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="-38510" yWindow="-7090" windowWidth="38620" windowHeight="21220" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065FDA7-421C-4F8A-A16F-CF6BB31AA54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A360CF-5B8A-4EBB-8544-0A724FFD41F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7090" windowWidth="38620" windowHeight="21220" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="3855" yWindow="2445" windowWidth="28800" windowHeight="15855" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>基准大小（M）</t>
   </si>
@@ -722,7 +722,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,6 +778,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -786,6 +789,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -794,6 +800,9 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -802,6 +811,9 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -810,6 +822,9 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -818,6 +833,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -826,6 +844,9 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -834,6 +855,9 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -842,6 +866,9 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -850,6 +877,9 @@
       <c r="B13" t="s">
         <v>28</v>
       </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -858,6 +888,9 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -866,6 +899,9 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -874,253 +910,349 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A360CF-5B8A-4EBB-8544-0A724FFD41F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790498C2-E131-443D-B71C-822F573625B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2445" windowWidth="28800" windowHeight="15855" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="2850" yWindow="1350" windowWidth="25170" windowHeight="20145" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
   <si>
     <t>基准大小（M）</t>
   </si>
@@ -72,262 +72,127 @@
     <t>Bundles/UITextures_Mobile</t>
   </si>
   <si>
-    <t>50.399M</t>
-  </si>
-  <si>
-    <t>10.552M</t>
-  </si>
-  <si>
-    <t>14.831M</t>
-  </si>
-  <si>
-    <t>11.755M</t>
-  </si>
-  <si>
-    <t>37.566M</t>
-  </si>
-  <si>
     <t>Bundles/HeroBattle((局内英雄)</t>
   </si>
   <si>
-    <t>124.26M</t>
-  </si>
-  <si>
     <t>Bundles/HeroAniEffect(英雄特效)</t>
   </si>
   <si>
-    <t>5.795M</t>
-  </si>
-  <si>
     <t>Bundles/PlayerPart</t>
   </si>
   <si>
-    <t>105.913M</t>
-  </si>
-  <si>
     <t>Bundles/HeroLobby(大厅英雄)</t>
   </si>
   <si>
-    <t>125.518M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_Standard</t>
   </si>
   <si>
-    <t>10.894M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_MonsterBoss</t>
   </si>
   <si>
-    <t>6.424M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_TowerDefence</t>
   </si>
   <si>
-    <t>11.059M</t>
-  </si>
-  <si>
     <t>Bundles/Common(字体、shader)</t>
   </si>
   <si>
-    <t>19.1M</t>
-  </si>
-  <si>
     <t>Bundles/Others(设备配置,OSS,徽章材质)</t>
   </si>
   <si>
-    <t>66.596M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Outside_Pokemons</t>
   </si>
   <si>
-    <t>0.012M</t>
-  </si>
-  <si>
     <t>Bundles/AvatarScene</t>
   </si>
   <si>
-    <t>118.193M</t>
-  </si>
-  <si>
     <t>Bundles/Npc(对话NPC)</t>
   </si>
   <si>
-    <t>17.181M</t>
-  </si>
-  <si>
     <t>Bundles/SysScene(大厅场景)</t>
   </si>
   <si>
-    <t>65.905M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_RemoatStadiumWinterMonster</t>
   </si>
   <si>
-    <t>0.683M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Battle_Pokemons_Batch</t>
   </si>
   <si>
-    <t>5.492M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_EeveeMode</t>
   </si>
   <si>
-    <t>0.007M</t>
-  </si>
-  <si>
     <t>Bundles/Scene</t>
   </si>
   <si>
-    <t>1.308M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Battle_Monsters_Batch</t>
   </si>
   <si>
-    <t>0.62M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_PikachuMode</t>
   </si>
   <si>
-    <t>0.714M</t>
-  </si>
-  <si>
     <t>Bundles/FxUI_Lobby</t>
   </si>
   <si>
-    <t>3.477M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures(各类UI贴图)</t>
   </si>
   <si>
-    <t>0.812M</t>
-  </si>
-  <si>
     <t>Bundles/Effect</t>
   </si>
   <si>
-    <t>1.024M</t>
-  </si>
-  <si>
     <t>Bundles/PokemonEntryCard_lite</t>
   </si>
   <si>
-    <t>0.639M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_Ctf</t>
   </si>
   <si>
-    <t>0.212M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Battle_Outside_Items</t>
   </si>
   <si>
-    <t>0.494M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Battle_Pokemons_Monsters</t>
   </si>
   <si>
-    <t>0.401M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Outside_Pokemons_Batch</t>
   </si>
   <si>
-    <t>0.254M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_Volleyball</t>
   </si>
   <si>
-    <t>0.101M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Battle_Common_Buff_Skill</t>
   </si>
   <si>
-    <t>0.399M</t>
-  </si>
-  <si>
     <t>Bundles/ArtResGeneral(美术资源通用)</t>
   </si>
   <si>
-    <t>0.357M</t>
-  </si>
-  <si>
     <t>Bundles/VisionDebugger(可视化调试)</t>
   </si>
   <si>
-    <t>0.001M</t>
-  </si>
-  <si>
     <t>Bundles/LocalizationRes(本地化图片)</t>
   </si>
   <si>
-    <t>0.105M</t>
-  </si>
-  <si>
     <t>Bundles/FxUI_TianMu_snow</t>
   </si>
   <si>
-    <t>1.188M</t>
-  </si>
-  <si>
     <t>Bundles/FxUI_InGame</t>
   </si>
   <si>
-    <t>1.845M</t>
-  </si>
-  <si>
     <t>Bundles/UITextures_Switch</t>
   </si>
   <si>
-    <t>0.01M</t>
-  </si>
-  <si>
     <t>Bundles/Misc(杂项（材质效果，spawner）)</t>
   </si>
   <si>
     <t>Bundles/DynamicCard(动态卡)</t>
   </si>
   <si>
-    <t>0.718M</t>
-  </si>
-  <si>
     <t>Bundles/PlayerBase</t>
   </si>
   <si>
-    <t>17.17M</t>
-  </si>
-  <si>
     <t>Bundles/Monster_GemRush</t>
   </si>
   <si>
-    <t>0.878M</t>
-  </si>
-  <si>
     <t>Bundles/UI3D(局内UI3d)</t>
   </si>
   <si>
-    <t>2.432M</t>
-  </si>
-  <si>
     <t>Bundles/BattleScene(场景资源)</t>
-  </si>
-  <si>
-    <t>348.227M</t>
   </si>
   <si>
     <t>v_zccgzhang</t>
@@ -336,6 +201,20 @@
   <si>
     <t>v_gypguo</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108.205M</t>
+  </si>
+  <si>
+    <t>108.205M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.09M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108.225M</t>
   </si>
 </sst>
 </file>
@@ -722,7 +601,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -765,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,10 +655,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -787,10 +666,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -798,461 +677,461 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790498C2-E131-443D-B71C-822F573625B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A346800E-F51F-4241-B2C3-FF6BD52F7784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1350" windowWidth="25170" windowHeight="20145" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="730" yWindow="2550" windowWidth="28800" windowHeight="15850" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
   <si>
     <t>基准大小（M）</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>108.225M</t>
+  </si>
+  <si>
+    <t>zhenhaofu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rosinzheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,17 +609,17 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -625,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -639,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -650,7 +658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -658,10 +666,10 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -669,10 +677,10 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -683,7 +691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -694,7 +702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -705,7 +713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -716,7 +724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -727,7 +735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -738,7 +746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -749,7 +757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -760,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -771,7 +779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -782,7 +790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -793,7 +801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -804,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -815,7 +823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -826,7 +834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -837,7 +845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -848,7 +856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -859,7 +867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -870,7 +878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -881,7 +889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -892,7 +900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -903,7 +911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -914,7 +922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -925,7 +933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -936,7 +944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -947,7 +955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -958,7 +966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -969,7 +977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -980,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -991,7 +999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A346800E-F51F-4241-B2C3-FF6BD52F7784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D054F-6E0A-40BA-AC36-F1E04FF7303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="730" yWindow="2550" windowWidth="28800" windowHeight="15850" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="1360" yWindow="2380" windowWidth="28800" windowHeight="15850" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D054F-6E0A-40BA-AC36-F1E04FF7303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ABEB00-5262-49BF-9F53-D33AC7F4089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2380" windowWidth="28800" windowHeight="15850" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="2260" yWindow="1360" windowWidth="28800" windowHeight="15860" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>基准大小（M）</t>
   </si>
@@ -57,9 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bundles/UIPrefab(UI Prefab)</t>
-  </si>
-  <si>
     <t>Bundles/SpriteAtlas(图集)</t>
   </si>
   <si>
@@ -203,25 +200,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>108.205M</t>
-  </si>
-  <si>
-    <t>108.205M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61.09M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108.225M</t>
-  </si>
-  <si>
     <t>zhenhaofu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rosinzheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bundles/UIPrefab(UI Prefab)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +600,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+      <selection activeCell="B3" sqref="B3:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -635,13 +626,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -649,497 +640,497 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\pkg-alert-reduction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\PreData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ABEB00-5262-49BF-9F53-D33AC7F4089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6750E9-5F69-4574-98D7-75E193ABE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1360" windowWidth="28800" windowHeight="15860" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
+    <workbookView xWindow="6640" yWindow="2970" windowWidth="28800" windowHeight="15860" xr2:uid="{E33977DD-34BB-4792-957E-758EDE860278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>基准大小（M）</t>
   </si>
@@ -57,6 +57,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bundles/UIPrefab(UI Prefab)</t>
+  </si>
+  <si>
     <t>Bundles/SpriteAtlas(图集)</t>
   </si>
   <si>
@@ -200,6 +203,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>108.205M</t>
+  </si>
+  <si>
+    <t>108.205M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.09M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108.225M</t>
+  </si>
+  <si>
     <t>zhenhaofu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,11 +225,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bundles/UIPrefab(UI Prefab)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100M</t>
+    <t>cheyanhuang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +613,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B47"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -626,13 +639,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -640,497 +653,497 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
